--- a/ASD.xlsx
+++ b/ASD.xlsx
@@ -12,222 +12,1086 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
-  <si>
-    <t>2017-11-10  12:12  , Power up</t>
-  </si>
-  <si>
-    <t>2017-11-10  12:13  , SETPT:       5.0</t>
-  </si>
-  <si>
-    <t>2017-11-10  12:43  , 5.2 , 4.6 , ----, "Shutdown, Disel, Cycle Sentry",</t>
-  </si>
-  <si>
-    <t>2017-11-10  13:13  , 5.5 , 4.3 , ----, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-10  13:43  , 4.2 , 4.3 , ----, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-10  14:13  , 5.4 , 4.9 , ----, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-10  14:43  , 4.3 , 5.7 , ----, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-10  15:13  , 4.8 , 4.7 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-10  15:43  , 4.2 , 5.2 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-10  16:13  , 5.2 , 5.3 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-10  16:43  , 5.8 , 5.9 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-10  17:13  , 5.0 , 4.5 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-10  17:43  , 5.6 , 4.5 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-10  18:13  , 5.6 , 5.9 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-10  18:25  , Timed Defrost Entered</t>
-  </si>
-  <si>
-    <t>2017-11-10  18:28  , 5.6 , 4.4 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-10  18:28  , Defrost State Exited</t>
-  </si>
-  <si>
-    <t>2017-11-10  18:58  , 4.0 , 5.6 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-10  19:28  , 4.0 , 5.1 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-10  19:58  , 4.2 , 5.1 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-10  20:28  , 5.4 , 4.3 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-10  20:58  , 4.8 , 4.5 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-10  21:28  , 4.3 , 5.4 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-10  21:43  , Timed Defrost Entered</t>
-  </si>
-  <si>
-    <t>2017-11-10  21:47  , 4.4 , 5.6 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-10  21:47  , Defrost State Exited</t>
-  </si>
-  <si>
-    <t>2017-11-10  22:17  , 4.0 , 5.8 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-10  22:47  , 5.1 , 5.3 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-10  23:17  , 5.7 , 5.0 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-10  23:47  , 4.0 , 5.0 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-10  23:54  , Timed Defrost Entered</t>
-  </si>
-  <si>
-    <t>2017-11-10  23:59  , 5.2 , 4.6 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-10  23:59  , Defrost State Exited</t>
-  </si>
-  <si>
-    <t>2017-11-10  00:00  , SETPT:       5.0</t>
-  </si>
-  <si>
-    <t>2017-11-10  00:00  , ,,5.0,,</t>
-  </si>
-  <si>
-    <t>2017-11-11  00:29  , 5.3 , 4.4 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-11  00:59  , 4.5 , 5.6 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-11  01:29  , 5.8 , 5.0 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-11  01:59  , 4.5 , 5.8 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-11  02:29  , 4.8 , 5.6 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-11  02:42  , Timed Defrost Entered</t>
-  </si>
-  <si>
-    <t>2017-11-11  02:47  , 5.6 , 4.5 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-11  02:47  , Defrost State Exited</t>
-  </si>
-  <si>
-    <t>2017-11-11  03:17  , 4.1 , 5.2 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-11  03:47  , 5.5 , 4.5 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-11  04:17  , 5.1 , 5.2 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-11  04:47  , 5.7 , 5.6 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-11  05:17  , 5.0 , 4.3 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-11  05:47  , 5.9 , 5.3 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-11  06:17  , 5.2 , 5.4 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-11  06:26  , Timed Defrost Entered</t>
-  </si>
-  <si>
-    <t>2017-11-11  06:30  , 4.3 , 5.3 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-11  06:30  , Defrost State Exited</t>
-  </si>
-  <si>
-    <t>2017-11-11  07:00  , 4.9 , 4.7 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-11  07:30  , 6.0 , 4.3 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-11  08:00  , 4.2 , 6.0 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-11  08:30  , 5.5 , 4.8 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-11  09:00  , 5.0 , 5.5 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-11  09:30  , 4.0 , 5.3 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-11  09:45  , Timed Defrost Entered</t>
-  </si>
-  <si>
-    <t>2017-11-11  09:50  , 5.3 , 5.3 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-11  09:50  , Defrost State Exited</t>
-  </si>
-  <si>
-    <t>2017-11-11  10:20  , 5.0 , 5.0 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-11  10:50  , 5.0 , 4.0 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-11  11:20  , 4.2 , 4.9 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-11  11:50  , 4.8 , 4.4 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-11  12:20  , 4.2 , 4.0 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-11  12:50  , 4.6 , 4.4 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-11  13:20  , 5.6 , 4.3 , 5.0, "Modulation, Disel, Continuous",</t>
-  </si>
-  <si>
-    <t>2017-11-11  13:50  , 4.8 , 5.1 , 5.0, DAS Countdown ON/Controller Off,</t>
-  </si>
-  <si>
-    <t>2017-11-11  14:20  , ,----    ,----  ,,DAS Countdown ON/Controller Off,-----</t>
-  </si>
-  <si>
-    <t>2017-11-11  14:50  , ,----    ,----  ,,DAS Conservative ON/Controller Off,-----</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="361">
+  <si>
+    <t>2017-11-11  10:15  , Power up</t>
+  </si>
+  <si>
+    <t>2017-11-11  10:16  , SETPT:       5.0</t>
+  </si>
+  <si>
+    <t>2017-11-11  10:46  , 4.3 , 5.1 , ----, "Shutdown, Disel, Cycle Sentry",</t>
+  </si>
+  <si>
+    <t>2017-11-11  11:16  , 5.8 , 5.4 , ----, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-11  11:46  , 5.5 , 4.2 , ----, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-11  12:16  , 4.0 , 5.9 , ----, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-11  12:46  , 5.7 , 4.1 , ----, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-11  13:16  , 5.3 , 4.6 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-11  13:46  , 4.7 , 5.9 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-11  14:16  , 4.7 , 4.7 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-11  14:46  , 4.1 , 4.6 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-11  15:16  , 4.2 , 4.1 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-11  15:26  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-11  15:31  , 4.1 , 5.6 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-11  15:31  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-11  16:01  , 5.2 , 5.3 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-11  16:31  , 5.0 , 5.2 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-11  17:01  , 5.3 , 5.6 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-11  17:31  , 4.4 , 5.7 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-11  18:01  , 5.7 , 4.3 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-11  18:31  , 5.9 , 4.5 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-11  19:01  , 5.7 , 5.1 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-11  19:19  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-11  19:23  , 4.0 , 5.7 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-11  19:23  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-11  19:53  , 5.1 , 5.8 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-11  20:23  , 5.2 , 4.1 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-11  20:53  , 5.4 , 5.5 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-11  21:23  , 4.6 , 4.6 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-11  21:53  , 4.8 , 4.9 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-11  22:23  , 5.4 , 5.4 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-11  22:53  , 5.2 , 4.8 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-11  23:01  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-11  23:06  , 4.7 , 4.8 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-11  23:06  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-11  23:36  , 4.2 , 5.6 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-11  00:00  , SETPT:       5.0</t>
+  </si>
+  <si>
+    <t>2017-11-11  00:00  , ,,5.0,,</t>
+  </si>
+  <si>
+    <t>2017-11-12  00:06  , 4.7 , 4.6 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  00:36  , 5.4 , 5.3 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  01:06  , 5.4 , 4.5 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  01:36  , 4.4 , 4.8 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  02:06  , 4.5 , 5.5 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  02:36  , 5.1 , 5.3 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  02:49  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-12  02:52  , 4.0 , 5.8 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  02:52  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-12  03:22  , 4.5 , 5.0 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  03:52  , 4.4 , 5.4 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  04:22  , 4.9 , 5.3 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  04:52  , 5.2 , 4.9 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  05:22  , 4.5 , 4.4 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  05:52  , 5.3 , 5.9 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  06:22  , 4.8 , 4.1 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  06:33  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-12  06:37  , 5.1 , 4.4 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  06:37  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-12  07:07  , 5.4 , 4.1 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  07:37  , 5.7 , 5.0 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  08:07  , 4.8 , 4.9 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  08:37  , 5.3 , 6.0 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  09:07  , 4.4 , 4.9 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  09:37  , 5.9 , 4.1 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  10:07  , 4.5 , 5.8 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  10:22  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-12  10:27  , 4.6 , 5.8 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  10:27  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-12  10:57  , 4.6 , 4.3 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  11:27  , 4.5 , 4.9 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  11:57  , 4.3 , 5.8 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  12:27  , 5.4 , 5.5 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  12:57  , 5.6 , 4.9 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  13:27  , 5.5 , 5.5 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  13:35  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-12  13:38  , 5.5 , 5.0 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  13:38  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-12  14:08  , 4.7 , 4.6 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  14:38  , 4.7 , 5.0 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  15:08  , 4.2 , 5.5 , 5.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  15:15  , SETPT:       8.0</t>
+  </si>
+  <si>
+    <t>2017-11-12  15:45  , 5.1 , 5.1 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  16:15  , 7.9 , 6.5 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  16:45  , 7.0 , 7.6 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  17:15  , 7.9 , 7.6 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  17:30  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-12  17:33  , 7.3 , 8.8 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  17:33  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-12  18:03  , 8.4 , 7.1 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  18:33  , 7.9 , 7.8 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  19:03  , 7.7 , 7.2 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  19:33  , 8.7 , 8.0 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  20:03  , 7.6 , 8.3 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  20:15  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-12  20:18  , 8.4 , 8.8 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  20:18  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-12  20:48  , 8.1 , 8.2 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  21:18  , 7.5 , 8.7 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  21:48  , 8.9 , 8.7 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  22:18  , 7.3 , 8.4 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  22:48  , 7.2 , 8.8 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  23:18  , 7.7 , 7.6 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  23:48  , 8.7 , 7.8 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-12  00:00  , SETPT:       8.0</t>
+  </si>
+  <si>
+    <t>2017-11-12  00:00  , ,,8.0,,</t>
+  </si>
+  <si>
+    <t>2017-11-13  00:10  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-13  00:13  , 8.4 , 8.1 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  00:13  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-13  00:43  , 8.5 , 8.7 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  01:13  , 7.9 , 8.1 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  01:43  , 7.8 , 8.8 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  02:13  , 8.4 , 8.8 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  02:43  , 8.6 , 7.2 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  03:13  , 7.0 , 8.1 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  03:35  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-13  03:40  , 8.6 , 8.9 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  03:40  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-13  04:10  , 8.2 , 7.6 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  04:40  , 7.8 , 8.0 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  05:10  , 8.0 , 8.6 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  05:40  , 7.6 , 7.6 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  06:10  , 7.7 , 7.1 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  06:40  , 8.7 , 7.2 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  07:10  , 7.6 , 8.2 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  07:16  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-13  07:21  , 7.5 , 8.6 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  07:21  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-13  07:51  , 7.8 , 7.5 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  08:21  , 7.4 , 7.4 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  08:51  , 7.6 , 7.7 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  09:21  , 8.7 , 7.8 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  09:51  , 7.7 , 7.8 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  10:21  , 7.1 , 7.7 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  10:51  , 7.1 , 8.2 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  11:09  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-13  11:14  , 8.9 , 8.1 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  11:14  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-13  11:44  , 7.2 , 7.7 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  12:14  , 7.2 , 7.7 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  12:44  , 8.4 , 8.4 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  13:14  , 7.1 , 8.0 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  13:44  , 8.3 , 7.1 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  14:14  , 8.7 , 8.9 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  14:25  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-13  14:30  , 7.6 , 8.8 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  14:30  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-13  15:00  , 8.2 , 8.5 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  15:30  , 8.5 , 8.5 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  16:00  , 7.5 , 7.7 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  16:30  , 7.2 , 7.4 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  17:00  , 7.6 , 8.4 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  17:30  , 8.1 , 7.8 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  17:53  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-13  17:58  , 7.4 , 8.6 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  17:58  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-13  18:28  , 7.2 , 7.9 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  18:58  , 8.8 , 8.3 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  19:28  , 8.0 , 8.4 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  19:58  , 7.7 , 8.3 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  20:28  , 8.5 , 7.6 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  20:58  , 7.0 , 7.5 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  21:28  , 7.1 , 8.7 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  21:36  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-13  21:41  , 8.3 , 7.3 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  21:41  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-13  22:11  , 8.8 , 8.3 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  22:41  , 8.4 , 8.2 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  23:11  , 8.7 , 8.8 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  23:41  , 7.9 , 8.5 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-13  00:00  , SETPT:       8.0</t>
+  </si>
+  <si>
+    <t>2017-11-13  00:00  , ,,8.0,,</t>
+  </si>
+  <si>
+    <t>2017-11-14  00:11  , 8.1 , 8.4 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  00:18  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-14  00:22  , 7.7 , 8.7 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  00:22  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-14  00:52  , 7.6 , 7.7 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  01:22  , 8.4 , 8.0 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  01:52  , 7.1 , 8.6 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  02:22  , 7.4 , 7.3 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  02:52  , 8.8 , 7.3 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  03:08  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-14  03:13  , 8.2 , 7.1 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  03:13  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-14  03:43  , 7.8 , 7.4 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  04:13  , 7.5 , 8.1 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  04:43  , 7.9 , 8.0 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  05:13  , 8.9 , 7.4 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  05:27  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-14  05:31  , 7.8 , 8.5 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  05:31  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-14  06:01  , 7.2 , 7.8 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  06:31  , 8.5 , 8.5 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  07:01  , 8.8 , 7.4 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  07:31  , 7.1 , 7.5 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  07:47  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-14  07:52  , 8.4 , 8.3 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  07:52  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-14  08:22  , 8.8 , 7.9 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  08:52  , 7.2 , 8.2 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  09:22  , 8.9 , 7.6 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  09:52  , 8.4 , 7.5 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  10:22  , 7.6 , 9.0 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  10:52  , 7.9 , 7.5 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  11:12  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-14  11:17  , 7.1 , 8.5 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  11:17  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-14  11:47  , 7.8 , 8.0 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  12:17  , 8.6 , 7.3 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  12:47  , 7.4 , 7.8 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  13:17  , 8.2 , 7.4 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  13:47  , 8.6 , 8.4 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  14:17  , 7.9 , 8.5 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  14:47  , 7.9 , 8.9 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  14:53  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-14  14:58  , 7.3 , 7.1 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  14:58  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-14  15:28  , 9.0 , 8.2 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  15:58  , 7.5 , 8.6 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  16:28  , 8.5 , 8.9 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  16:58  , 7.0 , 8.8 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  17:28  , 8.3 , 8.2 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  17:58  , 7.4 , 8.5 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  18:15  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-14  18:20  , 9.0 , 7.4 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  18:20  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-14  18:50  , 8.2 , 8.2 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  19:20  , 9.0 , 7.5 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  19:50  , 8.3 , 7.1 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  20:20  , 8.1 , 7.9 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  20:50  , 8.9 , 7.6 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  20:56  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-14  21:01  , 9.0 , 7.4 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  21:01  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-14  21:31  , 9.0 , 7.5 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  22:01  , 8.8 , 8.0 , 8.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  22:22  , SETPT:       10.0</t>
+  </si>
+  <si>
+    <t>2017-11-14  22:52  , 9.4 , 9.3 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  23:22  , 9.9 , 10.4 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  23:52  , 9.8 , 10.4 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-14  00:00  , SETPT:       10.0</t>
+  </si>
+  <si>
+    <t>2017-11-14  00:00  , ,,10.0,,</t>
+  </si>
+  <si>
+    <t>2017-11-15  00:22  , 9.9 , 10.3 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  00:52  , 10.1 , 10.1 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  01:05  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-15  01:08  , 10.1 , 9.7 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  01:08  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-15  01:38  , 10.4 , 10.0 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  02:08  , 9.6 , 10.3 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  02:38  , 10.0 , 10.0 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  03:08  , 9.8 , 9.9 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  03:14  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-15  03:19  , 9.5 , 9.9 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  03:19  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-15  03:49  , 10.1 , 9.7 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  04:19  , 10.4 , 10.1 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  04:49  , 9.8 , 9.7 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  05:19  , 10.4 , 9.7 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  05:49  , 10.2 , 10.1 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  06:19  , 10.2 , 10.3 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  06:49  , 10.3 , 10.1 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  07:07  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-15  07:10  , 9.9 , 10.0 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  07:10  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-15  07:40  , 9.8 , 9.6 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  08:10  , 10.1 , 9.8 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  08:40  , 9.9 , 9.8 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  09:10  , 10.0 , 10.4 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  09:40  , 10.1 , 9.6 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  10:10  , 10.2 , 9.5 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  10:17  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-15  10:22  , 9.7 , 10.0 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  10:22  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-15  10:52  , 10.1 , 9.9 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  11:22  , 10.4 , 9.7 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  11:52  , 10.1 , 10.1 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  12:22  , 10.1 , 9.6 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  12:52  , 10.3 , 9.8 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  13:22  , 9.7 , 9.9 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  13:52  , 10.2 , 9.5 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  14:05  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-15  14:10  , 9.8 , 9.9 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  14:10  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-15  14:40  , 9.9 , 9.7 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  15:10  , 10.2 , 9.8 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  15:40  , 10.0 , 9.6 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  16:10  , 9.6 , 9.9 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  16:32  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-15  16:37  , 10.1 , 10.2 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  16:37  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-15  17:07  , 10.3 , 9.9 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  17:37  , 9.8 , 10.4 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  18:07  , 10.2 , 10.2 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  18:37  , 9.7 , 10.2 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  19:07  , 9.7 , 10.5 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  19:18  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-15  19:23  , 10.3 , 10.2 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  19:23  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-15  19:53  , 9.7 , 9.6 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  20:23  , 10.2 , 10.4 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  20:53  , 10.2 , 10.4 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  21:23  , 9.8 , 9.6 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  21:53  , 9.8 , 10.3 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  22:23  , 9.7 , 9.9 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  22:36  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-15  22:40  , 9.5 , 10.0 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  22:40  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-15  23:10  , 9.6 , 10.0 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  23:40  , 10.4 , 9.7 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-15  00:00  , SETPT:       10.0</t>
+  </si>
+  <si>
+    <t>2017-11-15  00:00  , ,,10.0,,</t>
+  </si>
+  <si>
+    <t>2017-11-16  00:10  , 10.1 , 10.5 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  00:40  , 9.9 , 9.9 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  01:10  , 10.0 , 10.5 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  01:40  , 10.3 , 9.6 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  02:10  , 10.2 , 9.5 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  02:24  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-16  02:29  , 10.5 , 9.7 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  02:29  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-16  02:59  , 9.8 , 9.8 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  03:29  , 9.6 , 9.6 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  03:59  , 9.8 , 9.9 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  04:29  , 10.5 , 9.8 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  04:59  , 10.0 , 9.9 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  05:29  , 9.6 , 10.3 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  05:59  , 10.4 , 9.9 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  06:12  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-16  06:16  , 10.5 , 9.6 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  06:16  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-16  06:46  , 10.4 , 9.7 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  07:16  , 9.5 , 10.4 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  07:46  , 10.0 , 10.0 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  08:16  , 9.6 , 10.4 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  08:46  , 9.9 , 9.8 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  09:16  , 10.5 , 9.7 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  09:40  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-16  09:44  , 9.9 , 9.7 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  09:44  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-16  10:14  , 10.1 , 10.3 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  10:44  , 10.4 , 9.9 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  11:14  , 9.8 , 9.6 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  11:44  , 10.0 , 10.0 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  12:14  , 10.1 , 10.2 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  12:36  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-16  12:41  , 10.3 , 10.5 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  12:41  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-16  13:11  , 9.6 , 10.1 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  13:41  , 10.4 , 10.3 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  14:11  , 10.2 , 9.5 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  14:41  , 9.6 , 9.8 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  15:11  , 10.1 , 10.1 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  15:41  , 9.6 , 9.6 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  16:11  , 10.1 , 10.1 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  16:34  , Timed Defrost Entered</t>
+  </si>
+  <si>
+    <t>2017-11-16  16:38  , 9.8 , 9.5 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  16:38  , Defrost State Exited</t>
+  </si>
+  <si>
+    <t>2017-11-16  17:08  , 10.2 , 9.9 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  17:38  , 10.1 , 10.4 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  18:08  , 10.0 , 9.8 , 10.0, "Modulation, Disel, Continuous",</t>
+  </si>
+  <si>
+    <t>2017-11-16  18:38  , 9.8 , 10.5 , 10.0, DAS Countdown ON/Controller Off,</t>
+  </si>
+  <si>
+    <t>2017-11-16  19:08  , ,----    ,----  ,,DAS Countdown ON/Controller Off,-----</t>
+  </si>
+  <si>
+    <t>2017-11-16  19:38  , ,----    ,----  ,,DAS Conservative ON/Controller Off,-----</t>
   </si>
   <si>
     <t xml:space="preserve">                                      , End of data</t>
@@ -280,7 +1144,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B461"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -686,7 +1550,1527 @@
         <v>72</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" ht="15.0" customHeight="true"/>
+    <row r="102" ht="15.0" customHeight="true"/>
+    <row r="103" ht="7.0" customHeight="true"/>
+    <row r="104" ht="15.0" customHeight="true"/>
+    <row r="105" ht="8.0" customHeight="true"/>
+    <row r="106" ht="15.0" customHeight="true"/>
+    <row r="107" ht="15.0" customHeight="true"/>
+    <row r="108" ht="15.0" customHeight="true"/>
+    <row r="109" ht="15.0" customHeight="true"/>
+    <row r="110" ht="15.0" customHeight="true"/>
+    <row r="111">
+      <c r="A111" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="151" ht="15.0" customHeight="true"/>
+    <row r="152" ht="15.0" customHeight="true"/>
+    <row r="153" ht="7.0" customHeight="true"/>
+    <row r="154" ht="15.0" customHeight="true"/>
+    <row r="155" ht="8.0" customHeight="true"/>
+    <row r="156" ht="15.0" customHeight="true"/>
+    <row r="157" ht="15.0" customHeight="true"/>
+    <row r="158" ht="15.0" customHeight="true"/>
+    <row r="159" ht="15.0" customHeight="true"/>
+    <row r="160" ht="15.0" customHeight="true"/>
+    <row r="161">
+      <c r="A161" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="201" ht="15.0" customHeight="true"/>
+    <row r="202" ht="15.0" customHeight="true"/>
+    <row r="203" ht="7.0" customHeight="true"/>
+    <row r="204" ht="15.0" customHeight="true"/>
+    <row r="205" ht="8.0" customHeight="true"/>
+    <row r="206" ht="15.0" customHeight="true"/>
+    <row r="207" ht="15.0" customHeight="true"/>
+    <row r="208" ht="15.0" customHeight="true"/>
+    <row r="209" ht="15.0" customHeight="true"/>
+    <row r="210" ht="15.0" customHeight="true"/>
+    <row r="211">
+      <c r="A211" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="251" ht="15.0" customHeight="true"/>
+    <row r="252" ht="15.0" customHeight="true"/>
+    <row r="253" ht="7.0" customHeight="true"/>
+    <row r="254" ht="15.0" customHeight="true"/>
+    <row r="255" ht="8.0" customHeight="true"/>
+    <row r="256" ht="15.0" customHeight="true"/>
+    <row r="257" ht="15.0" customHeight="true"/>
+    <row r="258" ht="15.0" customHeight="true"/>
+    <row r="259" ht="15.0" customHeight="true"/>
+    <row r="260" ht="15.0" customHeight="true"/>
+    <row r="261">
+      <c r="A261" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="301" ht="15.0" customHeight="true"/>
+    <row r="302" ht="15.0" customHeight="true"/>
+    <row r="303" ht="7.0" customHeight="true"/>
+    <row r="304" ht="15.0" customHeight="true"/>
+    <row r="305" ht="8.0" customHeight="true"/>
+    <row r="306" ht="15.0" customHeight="true"/>
+    <row r="307" ht="15.0" customHeight="true"/>
+    <row r="308" ht="15.0" customHeight="true"/>
+    <row r="309" ht="15.0" customHeight="true"/>
+    <row r="310" ht="15.0" customHeight="true"/>
+    <row r="311">
+      <c r="A311" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="351" ht="15.0" customHeight="true"/>
+    <row r="352" ht="15.0" customHeight="true"/>
+    <row r="353" ht="7.0" customHeight="true"/>
+    <row r="354" ht="15.0" customHeight="true"/>
+    <row r="355" ht="8.0" customHeight="true"/>
+    <row r="356" ht="15.0" customHeight="true"/>
+    <row r="357" ht="15.0" customHeight="true"/>
+    <row r="358" ht="15.0" customHeight="true"/>
+    <row r="359" ht="15.0" customHeight="true"/>
+    <row r="360" ht="15.0" customHeight="true"/>
+    <row r="361">
+      <c r="A361" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="401" ht="15.0" customHeight="true"/>
+    <row r="402" ht="15.0" customHeight="true"/>
+    <row r="403" ht="7.0" customHeight="true"/>
+    <row r="404" ht="15.0" customHeight="true"/>
+    <row r="405" ht="8.0" customHeight="true"/>
+    <row r="406" ht="15.0" customHeight="true"/>
+    <row r="407" ht="15.0" customHeight="true"/>
+    <row r="408" ht="15.0" customHeight="true"/>
+    <row r="409" ht="15.0" customHeight="true"/>
+    <row r="410" ht="15.0" customHeight="true"/>
+    <row r="411">
+      <c r="A411" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="451" ht="15.0" customHeight="true"/>
+    <row r="452" ht="15.0" customHeight="true"/>
+    <row r="453" ht="7.0" customHeight="true"/>
+    <row r="454" ht="15.0" customHeight="true"/>
+    <row r="455" ht="8.0" customHeight="true"/>
+    <row r="456" ht="15.0" customHeight="true"/>
+    <row r="457" ht="15.0" customHeight="true"/>
+    <row r="458" ht="15.0" customHeight="true"/>
+    <row r="459" ht="15.0" customHeight="true"/>
+    <row r="460" ht="15.0" customHeight="true"/>
+    <row r="461">
+      <c r="A461" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins bottom="0.65" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.65"/>
 </worksheet>
 </file>